--- a/tempo_tables/Amenities_Provided.xlsx
+++ b/tempo_tables/Amenities_Provided.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="23">
   <si>
     <t>Listing_ID</t>
   </si>
   <si>
-    <t>Amenities</t>
+    <t>Amenity_Name</t>
   </si>
   <si>
     <t>Elevator</t>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>TV</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Merchandise</t>
+  </si>
+  <si>
+    <t>Polaroid Camera</t>
+  </si>
+  <si>
+    <t>Lunch</t>
   </si>
 </sst>
 </file>
@@ -193,15 +205,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B495"/>
+  <dimension ref="A1:B778"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4696356275304"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9757085020243"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
@@ -4164,6 +4176,2270 @@
       </c>
       <c r="B495" s="0" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B497" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B498" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="B501" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B502" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B503" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B504" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B505" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="B506" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="B507" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="B508" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="B509" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B510" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B511" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B513" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="B520" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="B521" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="B522" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="B524" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B525" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B526" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B527" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B528" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="B529" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="B530" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="B531" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="B533" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B534" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B535" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B536" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B537" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B538" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B539" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B540" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B541" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B542" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B543" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B544" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B545" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B546" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B547" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B548" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B549" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B550" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B551" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B552" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B553" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B554" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B555" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B556" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B557" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B558" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B559" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="B560" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="B561" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="B562" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="B563" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B564" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B565" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B566" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="B567" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="B568" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="B569" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B570" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B571" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B572" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B573" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="B574" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B575" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B576" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B577" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="B578" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="B579" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="B580" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="B581" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="B582" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="B583" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B584" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B586" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B587" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B588" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="B589" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B590" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B591" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B592" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="B593" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="B594" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="B595" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B596" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="B597" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="B598" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="B599" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="B600" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="B601" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B602" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="B603" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B604" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B605" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B606" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B607" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B608" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B609" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B610" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="B611" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="B612" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B613" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B614" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B615" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B616" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B617" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B618" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B619" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B620" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B621" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="B622" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="B623" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B624" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B625" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B626" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B627" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B628" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B629" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B630" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B631" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B632" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B633" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B634" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B635" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B636" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B637" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="B638" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="B639" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="B640" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="B641" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B642" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B643" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B644" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="B645" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B646" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B647" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B648" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B649" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B650" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B651" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B652" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B653" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B654" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B655" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="B656" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="B657" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="B658" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="B659" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="B660" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="B661" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B662" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B663" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B664" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B665" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B666" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B667" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B668" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="B669" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="B670" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="B671" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="B672" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B673" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B674" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B675" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B676" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B677" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="B678" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="B679" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B680" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B681" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B682" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B683" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="B684" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B686" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B687" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="B690" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="B691" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="B692" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="B693" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="B694" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="B695" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B696" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B697" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B698" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B699" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B700" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B701" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B702" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B703" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B704" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B705" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B706" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B707" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B708" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B709" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B710" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B711" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B712" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B713" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B714" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B715" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B716" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B717" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B718" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B719" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B720" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B721" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B722" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B723" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B724" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B725" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B726" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="B727" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="B728" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="B729" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="B730" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="B731" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="B732" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="B733" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="B734" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="B735" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="B736" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="B737" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="B738" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B739" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B740" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B741" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="B742" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="B743" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B744" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B745" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B746" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B747" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B748" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B749" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B750" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B751" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B752" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B753" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B754" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B755" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B756" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B757" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B758" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="B759" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B760" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B761" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B762" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B763" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B764" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="B765" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="B766" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="B767" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="B768" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="B769" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B770" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B771" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B772" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B773" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B774" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="B775" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="B776" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B777" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B778" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
